--- a/excels/ping_results.xlsx
+++ b/excels/ping_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ping_results" sheetId="1" state="hidden" r:id="rId1"/>
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4012,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4900,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
